--- a/data/trans_bre/P7_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 8,32</t>
+          <t>-4,54; 8,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 17,07</t>
+          <t>1,91; 17,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 14,71</t>
+          <t>1,81; 14,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 62,08</t>
+          <t>-23,56; 65,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 85,01</t>
+          <t>7,04; 84,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 69,4</t>
+          <t>5,62; 69,27</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 19,6</t>
+          <t>9,35; 20,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 19,63</t>
+          <t>8,47; 19,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 12,99</t>
+          <t>2,66; 12,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 7,66</t>
+          <t>-2,03; 7,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,81; 128,57</t>
+          <t>43,81; 131,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,04; 138,86</t>
+          <t>41,21; 131,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,56; 105,39</t>
+          <t>15,76; 101,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 60,63</t>
+          <t>-10,5; 61,21</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,54; 24,73</t>
+          <t>11,46; 24,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 14,16</t>
+          <t>0,86; 13,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 9,45</t>
+          <t>-1,94; 9,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 8,1</t>
+          <t>-2,54; 7,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,74; 217,97</t>
+          <t>63,64; 207,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 114,99</t>
+          <t>2,72; 103,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 88,88</t>
+          <t>-12,26; 91,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 48,09</t>
+          <t>-11,51; 47,15</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 21,93</t>
+          <t>10,91; 21,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 19,82</t>
+          <t>9,69; 19,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 19,35</t>
+          <t>5,0; 18,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 11,51</t>
+          <t>-1,74; 11,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,19; 240,09</t>
+          <t>79,9; 253,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,5; 103,88</t>
+          <t>39,64; 100,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,86; 125,02</t>
+          <t>21,18; 117,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 70,3</t>
+          <t>-7,53; 69,34</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 23,92</t>
+          <t>5,73; 23,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 22,07</t>
+          <t>6,24; 22,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 14,14</t>
+          <t>-2,53; 13,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 11,32</t>
+          <t>-0,31; 11,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,55; 136,61</t>
+          <t>21,79; 137,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,8; 170,16</t>
+          <t>30,05; 176,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 83,46</t>
+          <t>-9,98; 81,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 137,43</t>
+          <t>-0,71; 146,95</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,81; 26,7</t>
+          <t>12,98; 27,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 14,9</t>
+          <t>-0,41; 14,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 14,51</t>
+          <t>-0,6; 14,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 10,66</t>
+          <t>-1,01; 9,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>78,57; 263,47</t>
+          <t>80,11; 270,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 92,57</t>
+          <t>-1,22; 96,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 100,87</t>
+          <t>-2,93; 106,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 54,01</t>
+          <t>-4,43; 49,57</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,27; 18,77</t>
+          <t>9,86; 19,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 12,7</t>
+          <t>4,0; 12,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,23; 14,2</t>
+          <t>5,06; 14,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 10,74</t>
+          <t>-2,44; 10,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,3; 156,13</t>
+          <t>57,61; 158,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,98; 98,15</t>
+          <t>23,36; 101,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,63; 116,28</t>
+          <t>30,92; 115,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 76,72</t>
+          <t>-13,5; 74,67</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,66; 12,18</t>
+          <t>3,44; 12,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,31; 9,75</t>
+          <t>2,13; 10,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,32; 12,24</t>
+          <t>4,35; 11,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,97; 13,01</t>
+          <t>5,15; 13,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,46; 78,4</t>
+          <t>16,76; 78,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,2; 88,35</t>
+          <t>14,53; 95,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,31; 120,91</t>
+          <t>31,56; 109,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>25,04; 91,44</t>
+          <t>27,09; 91,51</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,09; 15,1</t>
+          <t>11,06; 15,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,1; 12,23</t>
+          <t>7,96; 12,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,02</t>
+          <t>6,23; 10,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,49</t>
+          <t>2,83; 7,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>66,42; 102,7</t>
+          <t>66,83; 103,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>46,43; 78,67</t>
+          <t>45,32; 76,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>36,78; 67,25</t>
+          <t>37,08; 69,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,55; 45,65</t>
+          <t>15,37; 45,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P7_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 8,72</t>
+          <t>-4,22; 8,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 17,04</t>
+          <t>1,29; 17,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,56; 65,09</t>
+          <t>-21,56; 61,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,04; 84,22</t>
+          <t>6,34; 89,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,35; 20,18</t>
+          <t>9,44; 20,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 19,44</t>
+          <t>8,35; 19,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 12,74</t>
+          <t>2,62; 12,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,81; 131,81</t>
+          <t>46,73; 137,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,21; 131,98</t>
+          <t>40,38; 131,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 101,97</t>
+          <t>14,67; 104,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,46; 24,28</t>
+          <t>11,71; 24,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 13,46</t>
+          <t>1,22; 14,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 9,62</t>
+          <t>-2,3; 9,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,64; 207,62</t>
+          <t>63,0; 208,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 103,64</t>
+          <t>7,33; 117,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 91,6</t>
+          <t>-14,67; 88,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,91; 21,75</t>
+          <t>10,47; 21,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,69; 19,59</t>
+          <t>9,29; 19,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 18,85</t>
+          <t>5,41; 18,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,9; 253,7</t>
+          <t>77,37; 258,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,64; 100,08</t>
+          <t>37,32; 104,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,18; 117,1</t>
+          <t>24,78; 117,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,73; 23,52</t>
+          <t>6,64; 24,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 22,14</t>
+          <t>6,35; 22,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 13,64</t>
+          <t>-2,32; 13,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,79; 137,22</t>
+          <t>26,61; 149,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,05; 176,12</t>
+          <t>28,03; 180,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 81,21</t>
+          <t>-11,0; 80,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,98; 27,26</t>
+          <t>13,12; 27,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 14,72</t>
+          <t>0,19; 14,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 14,58</t>
+          <t>-0,37; 13,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>80,11; 270,72</t>
+          <t>79,64; 271,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 96,03</t>
+          <t>-0,02; 93,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 106,47</t>
+          <t>-1,98; 103,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,86; 19,08</t>
+          <t>10,03; 18,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,0; 12,86</t>
+          <t>3,87; 12,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,06; 14,17</t>
+          <t>5,24; 14,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>57,61; 158,08</t>
+          <t>62,21; 159,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,36; 101,93</t>
+          <t>22,65; 102,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>30,92; 115,84</t>
+          <t>30,23; 116,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,44; 12,08</t>
+          <t>3,69; 11,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,13; 10,0</t>
+          <t>2,07; 9,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,35; 11,88</t>
+          <t>4,27; 12,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,76; 78,46</t>
+          <t>18,43; 76,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,53; 95,69</t>
+          <t>13,36; 88,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,56; 109,21</t>
+          <t>30,68; 113,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,06; 15,1</t>
+          <t>10,91; 14,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,96; 12,04</t>
+          <t>8,09; 12,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,23; 10,3</t>
+          <t>6,19; 10,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>66,83; 103,0</t>
+          <t>66,4; 99,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>45,32; 76,66</t>
+          <t>45,46; 77,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>37,08; 69,86</t>
+          <t>37,51; 68,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P7_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 8,12</t>
+          <t>-4,48; 8,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 17,24</t>
+          <t>1,99; 17,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 14,91</t>
+          <t>1,62; 14,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 61,16</t>
+          <t>-22,68; 62,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 89,27</t>
+          <t>6,92; 85,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 69,27</t>
+          <t>5,79; 69,4</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 20,13</t>
+          <t>9,23; 19,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,35; 19,48</t>
+          <t>8,42; 19,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 12,85</t>
+          <t>3,08; 12,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 7,57</t>
+          <t>-1,65; 7,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,73; 137,07</t>
+          <t>44,81; 128,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,38; 131,2</t>
+          <t>40,04; 138,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,67; 104,16</t>
+          <t>17,56; 105,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 61,21</t>
+          <t>-9,08; 60,63</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,71; 24,33</t>
+          <t>11,54; 24,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 14,55</t>
+          <t>1,2; 14,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 9,44</t>
+          <t>-2,24; 9,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 7,81</t>
+          <t>-2,75; 8,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,0; 208,34</t>
+          <t>61,74; 217,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 117,01</t>
+          <t>5,82; 114,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 88,39</t>
+          <t>-15,86; 88,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 47,15</t>
+          <t>-12,39; 48,09</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,47; 21,67</t>
+          <t>10,84; 21,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 19,59</t>
+          <t>9,82; 19,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 18,54</t>
+          <t>6,43; 19,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 11,3</t>
+          <t>-1,97; 11,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,37; 258,79</t>
+          <t>74,19; 240,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,32; 104,05</t>
+          <t>39,5; 103,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,78; 117,42</t>
+          <t>27,86; 125,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 69,34</t>
+          <t>-8,26; 70,3</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,64; 24,08</t>
+          <t>6,26; 23,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,35; 22,16</t>
+          <t>6,47; 22,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 13,91</t>
+          <t>-2,12; 14,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 11,45</t>
+          <t>-0,27; 11,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,61; 149,09</t>
+          <t>23,55; 136,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,03; 180,13</t>
+          <t>27,8; 170,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 80,18</t>
+          <t>-9,27; 83,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 146,95</t>
+          <t>3,3; 137,43</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,12; 27,16</t>
+          <t>12,81; 26,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 14,7</t>
+          <t>0,32; 14,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 13,95</t>
+          <t>-0,09; 14,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 9,94</t>
+          <t>-1,89; 10,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>79,64; 271,58</t>
+          <t>78,57; 263,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 93,77</t>
+          <t>0,56; 92,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 103,0</t>
+          <t>-2,33; 100,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 49,57</t>
+          <t>-7,1; 54,01</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,03; 18,88</t>
+          <t>9,27; 18,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,87; 12,84</t>
+          <t>3,91; 12,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,24; 14,05</t>
+          <t>5,23; 14,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 10,28</t>
+          <t>-3,04; 10,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>62,21; 159,52</t>
+          <t>56,3; 156,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,65; 102,02</t>
+          <t>23,98; 98,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>30,23; 116,61</t>
+          <t>31,63; 116,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 74,67</t>
+          <t>-15,88; 76,72</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,69; 11,94</t>
+          <t>3,66; 12,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,07; 9,58</t>
+          <t>2,31; 9,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,27; 12,39</t>
+          <t>4,32; 12,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,15; 13,07</t>
+          <t>4,97; 13,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,43; 76,45</t>
+          <t>18,46; 78,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,36; 88,78</t>
+          <t>14,2; 88,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,68; 113,84</t>
+          <t>30,31; 120,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,09; 91,51</t>
+          <t>25,04; 91,44</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,91; 14,79</t>
+          <t>11,09; 15,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,04</t>
+          <t>8,1; 12,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,19; 10,13</t>
+          <t>6,13; 10,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,65</t>
+          <t>2,98; 7,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>66,4; 99,1</t>
+          <t>66,42; 102,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>45,46; 77,13</t>
+          <t>46,43; 78,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>37,51; 68,17</t>
+          <t>36,78; 67,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,37; 45,37</t>
+          <t>16,55; 45,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P7_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,65%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>39,69%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,51; 22,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 14,71</t>
+          <t>2,88; 16,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,65; 106,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 69,4</t>
+          <t>10,13; 84,03</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>23,48%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 7,66</t>
+          <t>-1,56; 7,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 60,63</t>
+          <t>-7,74; 65,15</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>17,0%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 8,1</t>
+          <t>-2,43; 8,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 48,09</t>
+          <t>-11,08; 50,06</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,64</t>
+          <t>14,31</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,0%</t>
+          <t>73,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 19,82</t>
+          <t>7,6; 20,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 11,51</t>
+          <t>-9,88; 8,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,5; 103,88</t>
+          <t>33,98; 130,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 70,3</t>
+          <t>-39,34; 51,14</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>64,29%</t>
+          <t>49,54%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 11,32</t>
+          <t>-3,56; 10,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,3; 137,43</t>
+          <t>-25,73; 116,78</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>20,03%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 10,66</t>
+          <t>-1,62; 10,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 54,01</t>
+          <t>-6,18; 56,19</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>23,49%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 10,74</t>
+          <t>-7,38; 10,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 76,72</t>
+          <t>-44,31; 75,19</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>12,6</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>51,69%</t>
+          <t>93,98%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,97; 13,01</t>
+          <t>6,43; 20,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>25,04; 91,44</t>
+          <t>33,95; 373,86</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>34,01%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,49</t>
+          <t>1,78; 9,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,55; 45,65</t>
+          <t>11,18; 66,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P7_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 8,32</t>
+          <t>-4,83; 8,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,51; 22,85</t>
+          <t>7,42; 22,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 17,07</t>
+          <t>1,75; 17,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 16,41</t>
+          <t>2,59; 17,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 62,08</t>
+          <t>-24,57; 66,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,65; 106,87</t>
+          <t>26,9; 115,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 85,01</t>
+          <t>5,4; 85,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,13; 84,03</t>
+          <t>9,6; 89,43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 19,6</t>
+          <t>9,35; 19,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 19,63</t>
+          <t>7,92; 19,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 12,99</t>
+          <t>2,59; 12,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 7,86</t>
+          <t>-1,69; 7,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,81; 128,57</t>
+          <t>45,96; 130,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,04; 138,86</t>
+          <t>39,52; 131,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,56; 105,39</t>
+          <t>14,58; 101,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 65,15</t>
+          <t>-9,59; 62,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,54; 24,73</t>
+          <t>11,27; 24,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 14,16</t>
+          <t>1,29; 14,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 9,45</t>
+          <t>-2,05; 9,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 8,31</t>
+          <t>-2,0; 8,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,74; 217,97</t>
+          <t>60,96; 216,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 114,99</t>
+          <t>5,94; 109,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 88,88</t>
+          <t>-14,89; 83,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 50,06</t>
+          <t>-9,51; 50,95</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 21,93</t>
+          <t>10,5; 21,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 20,64</t>
+          <t>8,16; 20,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 19,35</t>
+          <t>5,86; 18,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 8,73</t>
+          <t>-9,16; 8,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,19; 240,09</t>
+          <t>74,12; 248,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,98; 130,72</t>
+          <t>34,72; 126,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,86; 125,02</t>
+          <t>26,33; 118,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,34; 51,14</t>
+          <t>-38,79; 50,71</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 23,92</t>
+          <t>5,59; 23,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 22,07</t>
+          <t>6,66; 22,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 14,14</t>
+          <t>-2,32; 14,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 10,35</t>
+          <t>-2,25; 10,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,55; 136,61</t>
+          <t>21,16; 137,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,8; 170,16</t>
+          <t>29,49; 179,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 83,46</t>
+          <t>-9,29; 86,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 116,78</t>
+          <t>-17,56; 120,68</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,81; 26,7</t>
+          <t>12,61; 26,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 14,9</t>
+          <t>0,31; 14,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 14,51</t>
+          <t>-0,52; 14,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 10,97</t>
+          <t>-1,04; 10,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>78,57; 263,47</t>
+          <t>78,91; 269,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 92,57</t>
+          <t>0,96; 93,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 100,87</t>
+          <t>-3,32; 98,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 56,19</t>
+          <t>-4,45; 51,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,27; 18,77</t>
+          <t>10,15; 19,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 12,7</t>
+          <t>4,15; 12,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,23; 14,2</t>
+          <t>4,71; 13,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 10,66</t>
+          <t>-7,54; 10,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,3; 156,13</t>
+          <t>62,43; 162,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,98; 98,15</t>
+          <t>23,5; 98,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,63; 116,28</t>
+          <t>28,61; 114,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-44,31; 75,19</t>
+          <t>-42,08; 73,27</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,66; 12,18</t>
+          <t>3,56; 11,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,31; 9,75</t>
+          <t>2,13; 9,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,32; 12,24</t>
+          <t>4,64; 12,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,43; 20,55</t>
+          <t>6,26; 20,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,46; 78,4</t>
+          <t>17,68; 75,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,2; 88,35</t>
+          <t>14,94; 88,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,31; 120,91</t>
+          <t>33,81; 114,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>33,95; 373,86</t>
+          <t>32,37; 317,64</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,09; 15,1</t>
+          <t>10,76; 14,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,1; 12,23</t>
+          <t>7,95; 11,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,02</t>
+          <t>6,03; 9,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,78; 9,16</t>
+          <t>1,75; 8,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>66,42; 102,7</t>
+          <t>64,22; 100,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>46,43; 78,67</t>
+          <t>44,52; 76,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>36,78; 67,25</t>
+          <t>36,13; 67,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,18; 66,38</t>
+          <t>11,21; 62,96</t>
         </is>
       </c>
     </row>
